--- a/工具包/ddt_test/aa.xlsx
+++ b/工具包/ddt_test/aa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\工具包\ddt_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35AB77F-4795-4D13-BDEA-106D4EE9C4AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D7E9A-3469-43DF-A3E3-7312FBE3BC0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,12 +391,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="120.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
